--- a/Data/F022.PRC.TIN.AN20.UF.Z.D.xlsx
+++ b/Data/F022.PRC.TIN.AN20.UF.Z.D.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -425,7 +425,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3434,7 +3434,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -5695,7 +5695,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -5933,7 +5933,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6001,7 +6001,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -6018,7 +6018,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6392,7 +6392,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -6647,7 +6647,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -6953,7 +6953,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -6970,7 +6970,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -7123,7 +7123,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -7242,7 +7242,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -7463,7 +7463,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -7667,7 +7667,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -7820,7 +7820,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -7837,7 +7837,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -8058,7 +8058,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -8075,7 +8075,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8143,7 +8143,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -8194,7 +8194,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -8262,7 +8262,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -8313,7 +8313,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -8500,7 +8500,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -8670,7 +8670,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -8687,7 +8687,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -8704,7 +8704,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -8789,7 +8789,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -8925,7 +8925,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -8976,7 +8976,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -9010,7 +9010,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -9044,7 +9044,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -9095,7 +9095,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -9146,7 +9146,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -9180,7 +9180,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -9214,7 +9214,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -9265,7 +9265,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -9350,7 +9350,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -9384,7 +9384,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -9418,7 +9418,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -9452,7 +9452,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -9571,7 +9571,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -9605,7 +9605,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -9622,7 +9622,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -9707,7 +9707,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -9741,7 +9741,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -9775,7 +9775,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -9792,7 +9792,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -9860,7 +9860,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -9877,7 +9877,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -9894,7 +9894,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -9962,7 +9962,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -9979,7 +9979,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -9996,7 +9996,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -10030,7 +10030,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -10098,7 +10098,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -10132,7 +10132,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -10166,7 +10166,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -10200,7 +10200,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -10302,7 +10302,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -10319,7 +10319,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -10336,7 +10336,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -10387,7 +10387,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -10421,7 +10421,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -10438,7 +10438,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -10472,7 +10472,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -10557,7 +10557,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -10574,7 +10574,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -10608,7 +10608,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -10625,7 +10625,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -10642,7 +10642,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -10676,7 +10676,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -10693,7 +10693,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -10710,7 +10710,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -10727,7 +10727,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -10812,7 +10812,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -10829,7 +10829,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -10846,7 +10846,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -10863,7 +10863,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -10880,7 +10880,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -10897,7 +10897,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -10914,7 +10914,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -10931,7 +10931,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -10948,7 +10948,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -10982,7 +10982,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -11033,7 +11033,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -11050,7 +11050,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -11067,7 +11067,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -11118,7 +11118,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -11152,7 +11152,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -11169,7 +11169,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -11186,7 +11186,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -11203,7 +11203,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -11237,7 +11237,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -11254,7 +11254,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -11288,7 +11288,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -11322,7 +11322,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -11339,7 +11339,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -11390,7 +11390,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -11407,7 +11407,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -11424,7 +11424,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -11441,7 +11441,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -11458,7 +11458,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -11475,7 +11475,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -11492,7 +11492,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -11509,7 +11509,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -11526,7 +11526,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -11594,7 +11594,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -11628,7 +11628,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -11645,7 +11645,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -11662,7 +11662,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -11679,7 +11679,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -11696,7 +11696,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -11713,7 +11713,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -11730,7 +11730,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -11764,7 +11764,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -11798,7 +11798,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -11849,7 +11849,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -11883,7 +11883,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -11900,7 +11900,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -11917,7 +11917,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -11934,7 +11934,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -11968,7 +11968,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -12002,7 +12002,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -12019,7 +12019,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -12036,7 +12036,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -12070,7 +12070,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -12087,7 +12087,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -12104,7 +12104,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -12138,7 +12138,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -12155,7 +12155,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -12189,7 +12189,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -12206,7 +12206,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -12257,7 +12257,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -12274,7 +12274,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -12325,7 +12325,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -12342,7 +12342,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -12359,7 +12359,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -12393,7 +12393,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -12410,7 +12410,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -12427,7 +12427,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -12444,7 +12444,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -12478,7 +12478,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -12495,7 +12495,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -12512,7 +12512,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -12580,7 +12580,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -12597,7 +12597,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -12614,7 +12614,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -12648,7 +12648,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -12682,7 +12682,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -12699,7 +12699,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -12733,7 +12733,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -12750,7 +12750,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -12767,7 +12767,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -12784,7 +12784,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -12818,7 +12818,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -12852,7 +12852,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -12869,7 +12869,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -12886,7 +12886,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -12903,7 +12903,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -12920,7 +12920,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -12937,7 +12937,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -12954,7 +12954,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -12971,7 +12971,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -12988,7 +12988,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -13022,7 +13022,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
@@ -13039,7 +13039,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -13056,7 +13056,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -13073,7 +13073,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -13090,7 +13090,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -13107,7 +13107,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -13141,7 +13141,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -13158,7 +13158,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -13175,7 +13175,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -13209,7 +13209,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -13226,7 +13226,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -13243,7 +13243,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -13260,7 +13260,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -13311,7 +13311,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -13328,7 +13328,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -13345,7 +13345,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -13362,7 +13362,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -13379,7 +13379,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -13396,7 +13396,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -13413,7 +13413,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -13430,7 +13430,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -13447,7 +13447,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -13464,7 +13464,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -13498,7 +13498,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -13532,7 +13532,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -13566,7 +13566,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
@@ -13583,7 +13583,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -13600,7 +13600,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -13617,7 +13617,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -13634,7 +13634,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -13651,7 +13651,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -13668,7 +13668,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
@@ -13685,7 +13685,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -13702,7 +13702,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -13736,7 +13736,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
@@ -13770,7 +13770,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
@@ -13787,7 +13787,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -13804,7 +13804,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -13821,7 +13821,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -13838,7 +13838,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -13855,7 +13855,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -13872,7 +13872,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -13889,7 +13889,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -13906,7 +13906,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -13923,7 +13923,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -13940,7 +13940,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -13957,7 +13957,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -13974,7 +13974,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -13991,7 +13991,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -14025,7 +14025,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
@@ -14042,7 +14042,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -14059,7 +14059,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -14093,7 +14093,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -14110,7 +14110,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -14127,7 +14127,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -14144,7 +14144,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -14161,7 +14161,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -14178,7 +14178,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -14195,7 +14195,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -14212,7 +14212,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -14229,7 +14229,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -14263,7 +14263,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -14280,7 +14280,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -14297,7 +14297,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -14348,7 +14348,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -14365,7 +14365,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -14382,7 +14382,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -14399,7 +14399,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -14416,7 +14416,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
@@ -14450,7 +14450,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -14467,7 +14467,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -14484,7 +14484,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -14501,7 +14501,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -14518,7 +14518,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -14535,7 +14535,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
@@ -14569,7 +14569,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -14586,7 +14586,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -14603,7 +14603,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -14620,7 +14620,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -14637,7 +14637,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -14654,7 +14654,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -14671,7 +14671,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -14688,7 +14688,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -14705,7 +14705,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -14722,7 +14722,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -14739,7 +14739,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -14756,7 +14756,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -14773,7 +14773,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -14807,7 +14807,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -14841,7 +14841,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -14858,7 +14858,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -14875,7 +14875,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -14892,7 +14892,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -14909,7 +14909,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -14926,7 +14926,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -14943,7 +14943,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -14960,7 +14960,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -14977,7 +14977,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -14994,7 +14994,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -15011,7 +15011,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -15045,7 +15045,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -15062,7 +15062,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -15079,7 +15079,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -15096,7 +15096,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -15113,7 +15113,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
@@ -15130,7 +15130,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -15147,7 +15147,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -15164,7 +15164,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -15181,7 +15181,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -15198,7 +15198,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -15232,7 +15232,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -15249,7 +15249,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -15283,7 +15283,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -15317,7 +15317,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -15334,7 +15334,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -15351,7 +15351,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -15368,7 +15368,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
@@ -15385,7 +15385,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
@@ -15402,7 +15402,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -15419,7 +15419,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
@@ -15436,7 +15436,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
@@ -15453,7 +15453,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
@@ -15470,7 +15470,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -15487,7 +15487,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -15521,7 +15521,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -15538,7 +15538,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
@@ -15555,7 +15555,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
@@ -15572,7 +15572,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
@@ -15589,7 +15589,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
@@ -15606,7 +15606,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
@@ -15623,7 +15623,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
@@ -15657,7 +15657,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -15674,7 +15674,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -15691,7 +15691,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -15708,7 +15708,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
@@ -15725,7 +15725,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
@@ -15759,7 +15759,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
@@ -15776,7 +15776,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
@@ -15793,7 +15793,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
@@ -15810,7 +15810,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
@@ -15827,7 +15827,7 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
@@ -15844,7 +15844,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
@@ -15861,7 +15861,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
@@ -15878,7 +15878,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
@@ -15895,7 +15895,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
@@ -15912,7 +15912,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
@@ -15929,7 +15929,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
@@ -15946,7 +15946,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
@@ -15963,7 +15963,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
@@ -15980,7 +15980,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
@@ -15997,7 +15997,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
@@ -16014,7 +16014,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
@@ -16031,7 +16031,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
@@ -16048,7 +16048,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
@@ -16065,7 +16065,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
@@ -16082,7 +16082,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
@@ -16116,7 +16116,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
@@ -16133,7 +16133,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
@@ -16150,7 +16150,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
@@ -16167,7 +16167,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
@@ -16184,7 +16184,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
@@ -16201,7 +16201,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
@@ -16218,7 +16218,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
@@ -16235,7 +16235,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
@@ -16252,7 +16252,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
@@ -16269,7 +16269,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
@@ -16286,7 +16286,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
@@ -16303,7 +16303,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
@@ -16320,7 +16320,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
@@ -16354,7 +16354,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
@@ -16371,7 +16371,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
@@ -16388,7 +16388,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
@@ -16405,7 +16405,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -16422,7 +16422,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -16439,7 +16439,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
@@ -16473,7 +16473,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
@@ -16490,7 +16490,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
@@ -16507,7 +16507,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
@@ -16524,7 +16524,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
@@ -16541,7 +16541,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
@@ -16558,7 +16558,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
@@ -16609,7 +16609,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
@@ -16626,7 +16626,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
@@ -16643,7 +16643,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
@@ -16660,7 +16660,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
@@ -16677,7 +16677,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">

--- a/Data/F022.PRC.TIN.AN20.UF.Z.D.xlsx
+++ b/Data/F022.PRC.TIN.AN20.UF.Z.D.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -425,7 +425,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3434,7 +3434,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -5695,7 +5695,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -5933,7 +5933,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6001,7 +6001,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -6018,7 +6018,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6392,7 +6392,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -6647,7 +6647,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -6953,7 +6953,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -6970,7 +6970,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -7123,7 +7123,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -7242,7 +7242,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -7463,7 +7463,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -7667,7 +7667,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -7820,7 +7820,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -7837,7 +7837,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -8058,7 +8058,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -8075,7 +8075,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8143,7 +8143,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -8194,7 +8194,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -8262,7 +8262,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -8313,7 +8313,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -8500,7 +8500,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -8670,7 +8670,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -8687,7 +8687,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -8704,7 +8704,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -8789,7 +8789,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -8925,7 +8925,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -8976,7 +8976,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -9010,7 +9010,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -9044,7 +9044,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -9095,7 +9095,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -9146,7 +9146,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -9180,7 +9180,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -9214,7 +9214,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -9265,7 +9265,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -9350,7 +9350,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -9384,7 +9384,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -9418,7 +9418,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -9452,7 +9452,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -9571,7 +9571,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -9605,7 +9605,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -9622,7 +9622,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -9707,7 +9707,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -9741,7 +9741,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -9775,7 +9775,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -9792,7 +9792,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -9860,7 +9860,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -9877,7 +9877,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -9894,7 +9894,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -9962,7 +9962,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -9979,7 +9979,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -9996,7 +9996,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -10030,7 +10030,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -10098,7 +10098,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -10132,7 +10132,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -10166,7 +10166,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -10200,7 +10200,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -10302,7 +10302,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -10319,7 +10319,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -10336,7 +10336,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -10387,7 +10387,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -10421,7 +10421,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -10438,7 +10438,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -10472,7 +10472,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -10557,7 +10557,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -10574,7 +10574,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -10608,7 +10608,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -10625,7 +10625,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -10642,7 +10642,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -10676,7 +10676,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -10693,7 +10693,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -10710,7 +10710,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -10727,7 +10727,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -10812,7 +10812,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -10829,7 +10829,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -10846,7 +10846,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -10863,7 +10863,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -10880,7 +10880,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -10897,7 +10897,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -10914,7 +10914,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -10931,7 +10931,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -10948,7 +10948,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -10982,7 +10982,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -11033,7 +11033,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -11050,7 +11050,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -11067,7 +11067,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -11118,7 +11118,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -11152,7 +11152,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -11169,7 +11169,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -11186,7 +11186,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -11203,7 +11203,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -11237,7 +11237,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -11254,7 +11254,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -11288,7 +11288,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -11322,7 +11322,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -11339,7 +11339,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -11390,7 +11390,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -11407,7 +11407,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -11424,7 +11424,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -11441,7 +11441,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -11458,7 +11458,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -11475,7 +11475,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -11492,7 +11492,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -11509,7 +11509,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -11526,7 +11526,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -11594,7 +11594,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -11628,7 +11628,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -11645,7 +11645,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -11662,7 +11662,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -11679,7 +11679,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -11696,7 +11696,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -11713,7 +11713,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -11730,7 +11730,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -11764,7 +11764,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -11798,7 +11798,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -11849,7 +11849,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -11883,7 +11883,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -11900,7 +11900,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -11917,7 +11917,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -11934,7 +11934,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -11968,7 +11968,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -12002,7 +12002,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -12019,7 +12019,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -12036,7 +12036,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -12070,7 +12070,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -12087,7 +12087,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -12104,7 +12104,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -12138,7 +12138,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -12155,7 +12155,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -12189,7 +12189,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -12206,7 +12206,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -12257,7 +12257,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -12274,7 +12274,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -12325,7 +12325,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -12342,7 +12342,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -12359,7 +12359,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -12393,7 +12393,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -12410,7 +12410,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -12427,7 +12427,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -12444,7 +12444,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -12478,7 +12478,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -12495,7 +12495,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -12512,7 +12512,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -12580,7 +12580,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -12597,7 +12597,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -12614,7 +12614,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -12648,7 +12648,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -12682,7 +12682,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -12699,7 +12699,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -12733,7 +12733,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -12750,7 +12750,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -12767,7 +12767,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -12784,7 +12784,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -12818,7 +12818,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -12852,7 +12852,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -12869,7 +12869,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -12886,7 +12886,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -12903,7 +12903,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -12920,7 +12920,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -12937,7 +12937,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -12954,7 +12954,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -12971,7 +12971,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -12988,7 +12988,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -13022,7 +13022,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
@@ -13039,7 +13039,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -13056,7 +13056,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -13073,7 +13073,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -13090,7 +13090,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -13107,7 +13107,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -13141,7 +13141,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -13158,7 +13158,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -13175,7 +13175,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -13209,7 +13209,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -13226,7 +13226,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -13243,7 +13243,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -13260,7 +13260,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -13311,7 +13311,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -13328,7 +13328,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -13345,7 +13345,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -13362,7 +13362,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -13379,7 +13379,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -13396,7 +13396,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -13413,7 +13413,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -13430,7 +13430,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -13447,7 +13447,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -13464,7 +13464,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -13498,7 +13498,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -13532,7 +13532,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -13566,7 +13566,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
@@ -13583,7 +13583,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -13600,7 +13600,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -13617,7 +13617,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -13634,7 +13634,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -13651,7 +13651,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -13668,7 +13668,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
@@ -13685,7 +13685,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -13702,7 +13702,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -13736,7 +13736,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
@@ -13770,7 +13770,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
@@ -13787,7 +13787,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -13804,7 +13804,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -13821,7 +13821,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -13838,7 +13838,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -13855,7 +13855,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -13872,7 +13872,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -13889,7 +13889,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -13906,7 +13906,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -13923,7 +13923,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -13940,7 +13940,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -13957,7 +13957,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -13974,7 +13974,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -13991,7 +13991,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -14025,7 +14025,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
@@ -14042,7 +14042,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -14059,7 +14059,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -14093,7 +14093,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -14110,7 +14110,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -14127,7 +14127,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -14144,7 +14144,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -14161,7 +14161,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -14178,7 +14178,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -14195,7 +14195,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -14212,7 +14212,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -14229,7 +14229,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -14263,7 +14263,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -14280,7 +14280,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -14297,7 +14297,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -14348,7 +14348,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -14365,7 +14365,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -14382,7 +14382,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -14399,7 +14399,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -14416,7 +14416,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
@@ -14450,7 +14450,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -14467,7 +14467,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -14484,7 +14484,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -14501,7 +14501,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -14518,7 +14518,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -14535,7 +14535,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
@@ -14569,7 +14569,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -14586,7 +14586,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -14603,7 +14603,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -14620,7 +14620,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -14637,7 +14637,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -14654,7 +14654,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -14671,7 +14671,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -14688,7 +14688,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -14705,7 +14705,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -14722,7 +14722,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -14739,7 +14739,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -14756,7 +14756,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -14773,7 +14773,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -14807,7 +14807,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -14841,7 +14841,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -14858,7 +14858,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -14875,7 +14875,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -14892,7 +14892,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -14909,7 +14909,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -14926,7 +14926,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -14943,7 +14943,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -14960,7 +14960,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -14977,7 +14977,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -14994,7 +14994,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -15011,7 +15011,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -15045,7 +15045,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -15062,7 +15062,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -15079,7 +15079,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -15096,7 +15096,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -15113,7 +15113,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
@@ -15130,7 +15130,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -15147,7 +15147,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -15164,7 +15164,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -15181,7 +15181,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -15198,7 +15198,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -15232,7 +15232,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -15249,7 +15249,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -15283,7 +15283,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -15317,7 +15317,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -15334,7 +15334,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -15351,7 +15351,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -15368,7 +15368,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
@@ -15385,7 +15385,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
@@ -15402,7 +15402,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -15419,7 +15419,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
@@ -15436,7 +15436,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
@@ -15453,7 +15453,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
@@ -15470,7 +15470,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -15487,7 +15487,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -15521,7 +15521,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -15538,7 +15538,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
@@ -15555,7 +15555,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
@@ -15572,7 +15572,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
@@ -15589,7 +15589,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
@@ -15606,7 +15606,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
@@ -15623,7 +15623,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
@@ -15657,7 +15657,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -15674,7 +15674,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -15691,7 +15691,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -15708,7 +15708,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
@@ -15725,7 +15725,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
@@ -15759,7 +15759,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
@@ -15776,7 +15776,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
@@ -15793,7 +15793,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
@@ -15810,7 +15810,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
@@ -15827,7 +15827,7 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
@@ -15844,7 +15844,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
@@ -15861,7 +15861,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
@@ -15878,7 +15878,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
@@ -15895,7 +15895,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
@@ -15912,7 +15912,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
@@ -15929,7 +15929,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
@@ -15946,7 +15946,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
@@ -15963,7 +15963,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
@@ -15980,7 +15980,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
@@ -15997,7 +15997,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
@@ -16014,7 +16014,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
@@ -16031,7 +16031,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
@@ -16048,7 +16048,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
@@ -16065,7 +16065,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
@@ -16082,7 +16082,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
@@ -16116,7 +16116,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
@@ -16133,7 +16133,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
@@ -16150,7 +16150,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
@@ -16167,7 +16167,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
@@ -16184,7 +16184,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
@@ -16201,7 +16201,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
@@ -16218,7 +16218,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
@@ -16235,7 +16235,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
@@ -16252,7 +16252,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
@@ -16269,7 +16269,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
@@ -16286,7 +16286,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
@@ -16303,7 +16303,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
@@ -16320,7 +16320,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
@@ -16354,7 +16354,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
@@ -16371,7 +16371,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
@@ -16388,7 +16388,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
@@ -16405,7 +16405,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -16422,7 +16422,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -16439,7 +16439,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
@@ -16473,7 +16473,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
@@ -16490,7 +16490,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
@@ -16507,7 +16507,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
@@ -16524,7 +16524,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
@@ -16541,7 +16541,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
@@ -16558,7 +16558,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
@@ -16609,7 +16609,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
@@ -16626,7 +16626,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
@@ -16643,7 +16643,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
@@ -16660,7 +16660,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
@@ -16677,7 +16677,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
